--- a/public/assets/format.xlsx
+++ b/public/assets/format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Martinez Pili\OneDrive\Documents\GitHub\PhilPostSys\PhilPostSys\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D8C2A-4300-4B6E-B85B-D36482ADAC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473801CC-1DAF-4FAA-869B-1500829A6D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4880FD3E-A64B-47FA-99F1-F196802745F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PHILIPPINE POSTAL CORPORATION</t>
   </si>
@@ -59,21 +59,16 @@
   <si>
     <t>Transmitted are Registry Return Recepits/Proofs of Delivery with the following Tracking Numbers, for your appropriate action please.</t>
   </si>
+  <si>
+    <t>Legazpi Port</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,39 +118,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,28 +532,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -575,272 +567,274 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
